--- a/MK76/tracks/A/ASSY_BOM_SIMPLE.xlsx
+++ b/MK76/tracks/A/ASSY_BOM_SIMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ELI\rt_super\PCB REV B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/479669c96501f956/Altium/Templates/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FCD0A1-0EB3-49EF-935D-FFDDFB390CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7C589900-9D0F-4ADD-9D85-437F23AF9492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C586C4-161D-48FD-9825-5F34E596900D}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2700" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly BOM" sheetId="3" r:id="rId1"/>
@@ -169,13 +169,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD13F"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -314,36 +314,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -353,14 +347,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,25 +363,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,9 +464,6 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFFFD13F"/>
-    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -568,22 +559,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>448015</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76540</xdr:rowOff>
+      <xdr:rowOff>52921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2D078A-216E-404E-ADCC-301462972537}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB5FC6C-D9BC-B8CD-6D4B-6106B93D5DDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,15 +583,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="0"/>
-          <a:ext cx="1095715" cy="1095715"/>
+          <a:off x="85726" y="104775"/>
+          <a:ext cx="1200150" cy="967321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -612,10 +609,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -653,9 +654,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,26 +689,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,26 +724,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,10 +903,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A199" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -956,86 +923,85 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="27" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -1045,7 +1011,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -1055,7 +1021,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -1065,7 +1031,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1075,7 +1041,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1085,7 +1051,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1097,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1107,85 +1073,20 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1197,7 +1098,7 @@
   <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;D&amp;R  
+    <oddFooter>&amp;L&amp;"Arial,Bold"Wavenumber LLC&amp;C&amp;D&amp;R  
 Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
@@ -1206,7 +1107,12 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7982460c-e924-4243-a781-af2364dddb69">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9af0cef5-a010-4bc1-a546-5f8166dda0be" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -1220,9 +1126,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006FA075DB8FBCC143A8C18048141B5549" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ce051e4eda571e1b0a71f333fc4d863">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbba553c-92dd-4ef7-826d-fc470ed3f1a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d494c76d2d8e74b1ce46c1f6acf9311" ns2:_="">
-    <xsd:import namespace="cbba553c-92dd-4ef7-826d-fc470ed3f1a8"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B8BF36952E7A7489D909438B56C6EE8" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="576308e1e73823ac3deba7443df48363">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7982460c-e924-4243-a781-af2364dddb69" xmlns:ns3="9af0cef5-a010-4bc1-a546-5f8166dda0be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57d9e2ee1ed24bbac4f6b0713c04ea2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="7982460c-e924-4243-a781-af2364dddb69"/>
+    <xsd:import namespace="9af0cef5-a010-4bc1-a546-5f8166dda0be"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1231,8 +1138,12 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -1241,7 +1152,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbba553c-92dd-4ef7-826d-fc470ed3f1a8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7982460c-e924-4243-a781-af2364dddb69" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1254,22 +1165,54 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fd6c5762-27b3-42f4-b01d-e5f6aaf95459" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9af0cef5-a010-4bc1-a546-5f8166dda0be" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dc497b08-38c8-4d22-80fe-89b3cec1cb8f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9af0cef5-a010-4bc1-a546-5f8166dda0be">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1396,19 +1339,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7AF26E1-45D5-4449-832C-642DE543F511}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cbba553c-92dd-4ef7-826d-fc470ed3f1a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DE6CDE-0FAF-49D8-957C-E710F6D75182}"/>
 </file>